--- a/100000-120000.xlsx
+++ b/100000-120000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -89,6 +95,21 @@
   </si>
   <si>
     <t>Visma Løn og Leder/medarbejdermodul</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Virksomheden lukker</t>
+  </si>
+  <si>
+    <t>DataLøn</t>
   </si>
   <si>
     <t>100000-120000</t>
@@ -453,13 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,10 +499,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -490,18 +517,21 @@
         <v>118122.86</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>44315</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -510,18 +540,21 @@
         <v>101094.66</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>44314</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -530,18 +563,21 @@
         <v>109548</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>44344</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -550,18 +586,21 @@
         <v>109791.88</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -570,18 +609,21 @@
         <v>117341</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>44462</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2022</v>
@@ -590,18 +632,21 @@
         <v>113561</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>44643</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -610,18 +655,21 @@
         <v>108824</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>44816</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -630,18 +678,24 @@
         <v>101508</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>44875</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -650,18 +704,21 @@
         <v>110646</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2">
         <v>45047</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -670,13 +727,16 @@
         <v>104340</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2">
         <v>45070</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/100000-120000.xlsx
+++ b/100000-120000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>24246361</t>
   </si>
   <si>
+    <t>14194711</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -106,10 +112,28 @@
     <t>Ikke oplyst</t>
   </si>
   <si>
-    <t>Virksomheden lukker</t>
-  </si>
-  <si>
     <t>DataLøn</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
   </si>
   <si>
     <t>100000-120000</t>
@@ -474,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,10 +529,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -517,21 +544,24 @@
         <v>118122.86</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>44315</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -540,21 +570,24 @@
         <v>101094.66</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>44314</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -563,21 +596,24 @@
         <v>109548</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>44344</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -586,21 +622,24 @@
         <v>109791.88</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -609,21 +648,24 @@
         <v>117341</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>44462</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2022</v>
@@ -632,21 +674,24 @@
         <v>113561</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>44643</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -655,21 +700,24 @@
         <v>108824</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>44816</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2022</v>
@@ -678,24 +726,27 @@
         <v>101508</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
         <v>44875</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -704,21 +755,21 @@
         <v>110646</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>45047</v>
       </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -727,16 +778,39 @@
         <v>104340</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>45070</v>
       </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+      <c r="C12">
+        <v>100068</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45113</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/100000-120000.xlsx
+++ b/100000-120000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>CVR</t>
   </si>
@@ -76,6 +76,15 @@
     <t>14194711</t>
   </si>
   <si>
+    <t>34391513</t>
+  </si>
+  <si>
+    <t>10613779</t>
+  </si>
+  <si>
+    <t>66328511</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
   </si>
   <si>
     <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
   </si>
   <si>
     <t>100000-120000</t>
@@ -498,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,19 +556,19 @@
         <v>118122.86</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>44315</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -570,19 +582,19 @@
         <v>101094.66</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>44314</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -596,19 +608,19 @@
         <v>109548</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>44344</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -622,19 +634,19 @@
         <v>109791.88</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -648,19 +660,19 @@
         <v>117341</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
         <v>44462</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -674,19 +686,19 @@
         <v>113561</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>44643</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -700,19 +712,19 @@
         <v>108824</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>44816</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -726,22 +738,22 @@
         <v>101508</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>44875</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -755,16 +767,16 @@
         <v>110646</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>45047</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -778,16 +790,16 @@
         <v>104340</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
         <v>45070</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -801,16 +813,88 @@
         <v>100068</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
         <v>45113</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>2023</v>
+      </c>
+      <c r="C13">
+        <v>102035.85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45196</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14">
+        <v>116715</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45212</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <v>109559.83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45245</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/100000-120000.xlsx
+++ b/100000-120000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>CVR</t>
   </si>
@@ -85,6 +85,12 @@
     <t>66328511</t>
   </si>
   <si>
+    <t>20690003</t>
+  </si>
+  <si>
+    <t>40675523</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>Visma Løn og Leder/medarbejdermodul</t>
   </si>
   <si>
+    <t>BPO Løn og refusion</t>
+  </si>
+  <si>
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
@@ -146,6 +155,12 @@
   </si>
   <si>
     <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
   </si>
   <si>
     <t>100000-120000</t>
@@ -510,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,19 +571,19 @@
         <v>118122.86</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>44315</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -582,19 +597,19 @@
         <v>101094.66</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2">
         <v>44314</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -608,19 +623,19 @@
         <v>109548</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>44344</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -634,19 +649,19 @@
         <v>109791.88</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -660,19 +675,19 @@
         <v>117341</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>44462</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -686,19 +701,19 @@
         <v>113561</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>44643</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -712,19 +727,19 @@
         <v>108824</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>44816</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -738,22 +753,22 @@
         <v>101508</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>44875</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -767,16 +782,16 @@
         <v>110646</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2">
         <v>45047</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -790,16 +805,16 @@
         <v>104340</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
         <v>45070</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -813,16 +828,16 @@
         <v>100068</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2">
         <v>45113</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -836,19 +851,19 @@
         <v>102035.85</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2">
         <v>45196</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -862,16 +877,16 @@
         <v>116715</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2">
         <v>45212</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -885,16 +900,62 @@
         <v>109559.83</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2">
         <v>45245</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16">
+        <v>113993.82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45363</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17">
+        <v>101832</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45438</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/100000-120000.xlsx
+++ b/100000-120000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>CVR</t>
   </si>
@@ -58,6 +58,9 @@
     <t>18940884</t>
   </si>
   <si>
+    <t>997336402</t>
+  </si>
+  <si>
     <t>31936330</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>Løn</t>
   </si>
   <si>
+    <t>SKL NO</t>
+  </si>
+  <si>
     <t>BPO Visma Løn</t>
   </si>
   <si>
@@ -128,6 +134,9 @@
   </si>
   <si>
     <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Systemet (uddyb i bemærkninger)</t>
   </si>
   <si>
     <t>DataLøn</t>
@@ -525,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,19 +580,19 @@
         <v>118122.86</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2">
         <v>44315</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -597,19 +606,19 @@
         <v>101094.66</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2">
         <v>44314</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -623,19 +632,19 @@
         <v>109548</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>44344</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -649,19 +658,19 @@
         <v>109791.88</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -675,19 +684,19 @@
         <v>117341</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>44462</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -695,25 +704,25 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C7">
-        <v>113561</v>
+        <v>118967</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2">
-        <v>44643</v>
+        <v>44467</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -724,22 +733,22 @@
         <v>2022</v>
       </c>
       <c r="C8">
-        <v>108824</v>
+        <v>113561</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
-        <v>44816</v>
+        <v>44643</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -750,25 +759,22 @@
         <v>2022</v>
       </c>
       <c r="C9">
-        <v>101508</v>
+        <v>108824</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
-        <v>44875</v>
+        <v>44816</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -776,22 +782,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C10">
-        <v>110646</v>
+        <v>101508</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2">
-        <v>45047</v>
+        <v>44875</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -802,19 +814,19 @@
         <v>2023</v>
       </c>
       <c r="C11">
-        <v>104340</v>
+        <v>110646</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="2">
-        <v>45070</v>
+        <v>45047</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -825,19 +837,19 @@
         <v>2023</v>
       </c>
       <c r="C12">
-        <v>100068</v>
+        <v>104340</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
-        <v>45113</v>
+        <v>45070</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -848,22 +860,19 @@
         <v>2023</v>
       </c>
       <c r="C13">
-        <v>102035.85</v>
+        <v>100068</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="2">
-        <v>45196</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
+        <v>45113</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -874,19 +883,22 @@
         <v>2023</v>
       </c>
       <c r="C14">
-        <v>116715</v>
+        <v>102035.85</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2">
-        <v>45212</v>
+        <v>45196</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -897,19 +909,19 @@
         <v>2023</v>
       </c>
       <c r="C15">
-        <v>109559.83</v>
+        <v>116715</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2">
-        <v>45245</v>
+        <v>45212</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -917,22 +929,22 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C16">
-        <v>113993.82</v>
+        <v>109559.83</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2">
-        <v>45363</v>
+        <v>45245</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -943,19 +955,42 @@
         <v>2024</v>
       </c>
       <c r="C17">
+        <v>113993.82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45363</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>2024</v>
+      </c>
+      <c r="C18">
         <v>101832</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2">
         <v>45438</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
-        <v>49</v>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
